--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>151.7260716666667</v>
+        <v>144.783305</v>
       </c>
       <c r="H2">
-        <v>455.178215</v>
+        <v>434.349915</v>
       </c>
       <c r="I2">
-        <v>0.2700739458961593</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J2">
-        <v>0.2783366498663096</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,33 +558,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6597006666666666</v>
+        <v>0.8377936666666667</v>
       </c>
       <c r="N2">
-        <v>1.979102</v>
+        <v>2.513381</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.7130909380817101</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.7130909380817101</v>
       </c>
       <c r="Q2">
-        <v>100.0937906292144</v>
+        <v>121.2985359680683</v>
       </c>
       <c r="R2">
-        <v>900.84411566293</v>
+        <v>1091.686823712615</v>
       </c>
       <c r="S2">
-        <v>0.2700739458961593</v>
+        <v>0.1732844020743374</v>
       </c>
       <c r="T2">
-        <v>0.2783366498663096</v>
+        <v>0.1789948690310812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>82.24887100000001</v>
+        <v>144.783305</v>
       </c>
       <c r="H3">
-        <v>246.746613</v>
+        <v>434.349915</v>
       </c>
       <c r="I3">
-        <v>0.146403824289839</v>
+        <v>0.2430046335191003</v>
       </c>
       <c r="J3">
-        <v>0.150882936320401</v>
+        <v>0.251012682214973</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,33 +620,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6597006666666666</v>
+        <v>0.3370826666666667</v>
       </c>
       <c r="N3">
-        <v>1.979102</v>
+        <v>1.011248</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2869090619182899</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2869090619182899</v>
       </c>
       <c r="Q3">
-        <v>54.25963503128067</v>
+        <v>48.80394253821333</v>
       </c>
       <c r="R3">
-        <v>488.336715281526</v>
+        <v>439.23548284392</v>
       </c>
       <c r="S3">
-        <v>0.146403824289839</v>
+        <v>0.0697202314447629</v>
       </c>
       <c r="T3">
-        <v>0.150882936320401</v>
+        <v>0.07201781318389169</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.444321</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H4">
-        <v>370.332963</v>
+        <v>246.746613</v>
       </c>
       <c r="I4">
-        <v>0.2197321429647646</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J4">
-        <v>0.2264546783208506</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.6597006666666666</v>
+        <v>0.8377936666666667</v>
       </c>
       <c r="N4">
-        <v>1.979102</v>
+        <v>2.513381</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.7130909380817101</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.7130909380817101</v>
       </c>
       <c r="Q4">
-        <v>81.436300859914</v>
+        <v>68.90758321428366</v>
       </c>
       <c r="R4">
-        <v>732.926707739226</v>
+        <v>620.168248928553</v>
       </c>
       <c r="S4">
-        <v>0.2197321429647646</v>
+        <v>0.09843984727744895</v>
       </c>
       <c r="T4">
-        <v>0.2264546783208506</v>
+        <v>0.1016838639827934</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,25 +717,25 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.0323125</v>
+        <v>82.24887099999999</v>
       </c>
       <c r="H5">
-        <v>100.064625</v>
+        <v>246.746613</v>
       </c>
       <c r="I5">
-        <v>0.08905802352064279</v>
+        <v>0.1380466950572427</v>
       </c>
       <c r="J5">
-        <v>0.06118845668531954</v>
+        <v>0.1425959278859072</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.6597006666666666</v>
+        <v>0.3370826666666667</v>
       </c>
       <c r="N5">
-        <v>1.979102</v>
+        <v>1.011248</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.2869090619182899</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.2869090619182899</v>
       </c>
       <c r="Q5">
-        <v>33.006349911125</v>
+        <v>27.72466876700267</v>
       </c>
       <c r="R5">
-        <v>198.03809946675</v>
+        <v>249.522018903024</v>
       </c>
       <c r="S5">
-        <v>0.08905802352064279</v>
+        <v>0.03960684777979372</v>
       </c>
       <c r="T5">
-        <v>0.06118845668531954</v>
+        <v>0.04091206390311374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.3429766666667</v>
+        <v>163.8590903333333</v>
       </c>
       <c r="H6">
-        <v>463.02893</v>
+        <v>491.577271</v>
       </c>
       <c r="I6">
-        <v>0.2747320633285943</v>
+        <v>0.2750214756820535</v>
       </c>
       <c r="J6">
-        <v>0.2831372788071194</v>
+        <v>0.284084617144743</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,28 +806,338 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.6597006666666666</v>
+        <v>0.8377936666666667</v>
       </c>
       <c r="N6">
-        <v>1.979102</v>
+        <v>2.513381</v>
       </c>
       <c r="O6">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="P6">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="Q6">
+        <v>137.2801081070279</v>
+      </c>
+      <c r="R6">
+        <v>1235.520972963251</v>
+      </c>
+      <c r="S6">
+        <v>0.1961153220867317</v>
+      </c>
+      <c r="T6">
+        <v>0.2025781661343282</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="P6">
+      <c r="G7">
+        <v>163.8590903333333</v>
+      </c>
+      <c r="H7">
+        <v>491.577271</v>
+      </c>
+      <c r="I7">
+        <v>0.2750214756820535</v>
+      </c>
+      <c r="J7">
+        <v>0.284084617144743</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.3370826666666667</v>
+      </c>
+      <c r="N7">
+        <v>1.011248</v>
+      </c>
+      <c r="O7">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="P7">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="Q7">
+        <v>55.23405912713423</v>
+      </c>
+      <c r="R7">
+        <v>497.1065321442081</v>
+      </c>
+      <c r="S7">
+        <v>0.07890615359532173</v>
+      </c>
+      <c r="T7">
+        <v>0.08150645101041473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="Q6">
-        <v>101.8201646023178</v>
-      </c>
-      <c r="R6">
-        <v>916.3814814208599</v>
-      </c>
-      <c r="S6">
-        <v>0.2747320633285943</v>
-      </c>
-      <c r="T6">
-        <v>0.2831372788071194</v>
+      <c r="G8">
+        <v>57.0238095</v>
+      </c>
+      <c r="H8">
+        <v>114.047619</v>
+      </c>
+      <c r="I8">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J8">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.8377936666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.513381</v>
+      </c>
+      <c r="O8">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="P8">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="Q8">
+        <v>47.7741864483065</v>
+      </c>
+      <c r="R8">
+        <v>286.645118689839</v>
+      </c>
+      <c r="S8">
+        <v>0.06824914470082323</v>
+      </c>
+      <c r="T8">
+        <v>0.04699883186626537</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>57.0238095</v>
+      </c>
+      <c r="H9">
+        <v>114.047619</v>
+      </c>
+      <c r="I9">
+        <v>0.09570889357312636</v>
+      </c>
+      <c r="J9">
+        <v>0.06590860906562239</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.3370826666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.011248</v>
+      </c>
+      <c r="O9">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="P9">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="Q9">
+        <v>19.221737769752</v>
+      </c>
+      <c r="R9">
+        <v>115.330426618512</v>
+      </c>
+      <c r="S9">
+        <v>0.02745974887230312</v>
+      </c>
+      <c r="T9">
+        <v>0.01890977719935701</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H10">
+        <v>443.6689</v>
+      </c>
+      <c r="I10">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J10">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.8377936666666667</v>
+      </c>
+      <c r="N10">
+        <v>2.513381</v>
+      </c>
+      <c r="O10">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="P10">
+        <v>0.7130909380817101</v>
+      </c>
+      <c r="Q10">
+        <v>123.9009981723222</v>
+      </c>
+      <c r="R10">
+        <v>1115.1089835509</v>
+      </c>
+      <c r="S10">
+        <v>0.1770022219423688</v>
+      </c>
+      <c r="T10">
+        <v>0.1828352070672419</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>147.8896333333333</v>
+      </c>
+      <c r="H11">
+        <v>443.6689</v>
+      </c>
+      <c r="I11">
+        <v>0.2482183021684772</v>
+      </c>
+      <c r="J11">
+        <v>0.2563981636887546</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.3370826666666667</v>
+      </c>
+      <c r="N11">
+        <v>1.011248</v>
+      </c>
+      <c r="O11">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="P11">
+        <v>0.2869090619182899</v>
+      </c>
+      <c r="Q11">
+        <v>49.85103197635556</v>
+      </c>
+      <c r="R11">
+        <v>448.6592877872001</v>
+      </c>
+      <c r="S11">
+        <v>0.07121608022610841</v>
+      </c>
+      <c r="T11">
+        <v>0.0735629566215127</v>
       </c>
     </row>
   </sheetData>
